--- a/1.项目计划/1.7.大模型开发的花费统计.xlsx
+++ b/1.项目计划/1.7.大模型开发的花费统计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\191576816831\Desktop\周日志\第12周-前后端交互\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\191576816831\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D88CEA8-03DC-4496-A593-0B413EC77611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91752210-345F-4A58-95A4-132BA371EAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3ADAF7DB-F119-4E59-BDD6-90EA127A38D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="112">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,102 @@
   </si>
   <si>
     <t>NL2图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云-2核2G服务器-年卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程-部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署-爬虫数据库和后端API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智谱-API充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署-爬虫使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程-爬虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云-API充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《清单革命-如何持续，正确，安全地把事情做好》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我计划与管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIGC面试宝典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《LangChain实战》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Rasa实战：构建开源对话机器人》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云-4核8G云服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307（使用了学生优惠券）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAG评测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT4-API充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月之暗面-API充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAG生成及评测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极客时间-重学前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《架构思维从程序员到CTO》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术-架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,19 +859,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1E3D36-D20E-4FFC-AF7D-461431398545}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="2" max="2" width="45.75" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="64.375" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="38.125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="18.25" style="4" customWidth="1"/>
@@ -1938,6 +2034,341 @@
         <v>45365</v>
       </c>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>99</v>
+      </c>
+      <c r="H47" s="5">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="1">
+        <v>50</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>50</v>
+      </c>
+      <c r="H48" s="5">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="1">
+        <v>50</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>50</v>
+      </c>
+      <c r="H49" s="5">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="1">
+        <v>79</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>44.93</v>
+      </c>
+      <c r="H50" s="5">
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="1">
+        <v>199</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>199</v>
+      </c>
+      <c r="H51" s="5">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="1">
+        <v>89</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="H52" s="5">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="1">
+        <v>89</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="H53" s="5">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>7</v>
+      </c>
+      <c r="H54" s="5">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="1">
+        <v>50</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>50</v>
+      </c>
+      <c r="H55" s="5">
+        <v>45389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="1">
+        <v>75</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>75</v>
+      </c>
+      <c r="H56" s="5">
+        <v>45389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="1">
+        <v>50</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>50</v>
+      </c>
+      <c r="H57" s="5">
+        <v>45389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="1">
+        <v>90</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>90</v>
+      </c>
+      <c r="H58" s="5">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="H59" s="5">
+        <v>45395</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
